--- a/Users Loads0.xlsx
+++ b/Users Loads0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.439406865053991</v>
+        <v>1.572542121719036</v>
       </c>
       <c r="C2" t="n">
-        <v>7.581475677381473</v>
+        <v>3.573675998788179</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5241479320351479</v>
+        <v>0.1682440689762209</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.07052246505403</v>
+        <v>2.471875601886715</v>
       </c>
       <c r="C3" t="n">
-        <v>6.647022960291587</v>
+        <v>13.66778973488689</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6385789319319795</v>
+        <v>0.2481175178011985</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.43988957548789</v>
+        <v>6.869509479688297</v>
       </c>
       <c r="C4" t="n">
-        <v>5.433204139192549</v>
+        <v>9.668529676418325</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9208405539061983</v>
+        <v>0.2485055396418034</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.19355194837994</v>
+        <v>11.86397520548146</v>
       </c>
       <c r="C5" t="n">
-        <v>4.238783512360829</v>
+        <v>2.282088441392292</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2418056755375391</v>
+        <v>0.2781697875166194</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.5589356332503</v>
+        <v>14.46411246506577</v>
       </c>
       <c r="C6" t="n">
-        <v>5.457433908108478</v>
+        <v>7.213386370790182</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6545979942558723</v>
+        <v>0.2058729862662284</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.7140432599178</v>
+        <v>21.39062923347744</v>
       </c>
       <c r="C7" t="n">
-        <v>2.941715002425643</v>
+        <v>8.780482643419424</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4555179200639513</v>
+        <v>0.2619635363017802</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>19.05891502298499</v>
+        <v>21.89360964428272</v>
       </c>
       <c r="C8" t="n">
-        <v>4.963250640574387</v>
+        <v>5.003452587337643</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3499793338112943</v>
+        <v>0.3359027771647253</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.75846239127399</v>
+        <v>22.27162400124058</v>
       </c>
       <c r="C9" t="n">
-        <v>3.45029474333816</v>
+        <v>6.205759828660251</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5364486210457232</v>
+        <v>0.56317255527414</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20.47402424150552</v>
+        <v>23.41847818429334</v>
       </c>
       <c r="C10" t="n">
-        <v>2.60334359307376</v>
+        <v>2.462080416484365</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1368911142414604</v>
+        <v>0.1905477177590064</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22.88262970505116</v>
+        <v>24.36625815205676</v>
       </c>
       <c r="C11" t="n">
-        <v>6.17017023168148</v>
+        <v>8.07945614204414</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6402605437834844</v>
+        <v>0.1397689782803794</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.72339452559727</v>
+        <v>26.76731041766614</v>
       </c>
       <c r="C12" t="n">
-        <v>3.026014846213558</v>
+        <v>8.442973860406552</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4173467341622631</v>
+        <v>0.3434554275025283</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23.7326072552398</v>
+        <v>28.37458172113914</v>
       </c>
       <c r="C13" t="n">
-        <v>4.752279890961421</v>
+        <v>3.190517626457088</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6934930086416864</v>
+        <v>0.2946709233228973</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.42458430305371</v>
+        <v>29.8140107588996</v>
       </c>
       <c r="C14" t="n">
-        <v>3.236807346463835</v>
+        <v>7.929744089259489</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7115973963181933</v>
+        <v>0.4838964756855428</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>31.06937731696958</v>
+        <v>31.46021936588081</v>
       </c>
       <c r="C15" t="n">
-        <v>3.912242471901641</v>
+        <v>2.111358546182495</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5242155546808823</v>
+        <v>0.1753943948996613</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>37.16051419033085</v>
+        <v>32.09965772108487</v>
       </c>
       <c r="C16" t="n">
-        <v>3.121801252994652</v>
+        <v>7.711276599561025</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2877952220087749</v>
+        <v>0.3068185749288009</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>37.50356013780264</v>
+        <v>36.52588126029993</v>
       </c>
       <c r="C17" t="n">
-        <v>1.35476291604185</v>
+        <v>3.26788865765766</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2815836356121102</v>
+        <v>0.2063874415691686</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>47.27659854788319</v>
+        <v>39.03568479388384</v>
       </c>
       <c r="C18" t="n">
-        <v>11.49764767178932</v>
+        <v>6.674947261798255</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5846048483010061</v>
+        <v>0.1613758054733849</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>53.47770196707528</v>
+        <v>42.25720512618021</v>
       </c>
       <c r="C19" t="n">
-        <v>5.921245955035822</v>
+        <v>6.941587135055538</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0622485395851206</v>
+        <v>0.3783521117874042</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>53.67482197738411</v>
+        <v>42.57807981599107</v>
       </c>
       <c r="C20" t="n">
-        <v>2.837723929507027</v>
+        <v>2.292900466152926</v>
       </c>
       <c r="D20" t="n">
-        <v>0.387591929177639</v>
+        <v>0.06930934494196311</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>56.54607809999933</v>
+        <v>46.94562046946817</v>
       </c>
       <c r="C21" t="n">
-        <v>7.137064332439132</v>
+        <v>11.80053932980652</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5711419811769785</v>
+        <v>0.3892941784961114</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>59.39858055014321</v>
+        <v>47.21446559881394</v>
       </c>
       <c r="C22" t="n">
-        <v>7.444727708306377</v>
+        <v>5.569532801176738</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7701951304345523</v>
+        <v>0.1966997888237451</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>70.66756498461774</v>
+        <v>51.27594126760494</v>
       </c>
       <c r="C23" t="n">
-        <v>2.032914209260073</v>
+        <v>3.013274111135734</v>
       </c>
       <c r="D23" t="n">
-        <v>0.379915165122312</v>
+        <v>0.2460867459971646</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>72.0471339185211</v>
+        <v>56.92549195466314</v>
       </c>
       <c r="C24" t="n">
-        <v>2.592245768623894</v>
+        <v>3.395151305512115</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4250178804971482</v>
+        <v>0.4654007084820373</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>76.28738678621424</v>
+        <v>57.54322546582416</v>
       </c>
       <c r="C25" t="n">
-        <v>1.392654236028976</v>
+        <v>7.974175543466883</v>
       </c>
       <c r="D25" t="n">
-        <v>0.23953866136067</v>
+        <v>0.5925928358199157</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>81.78811760412059</v>
+        <v>59.76555762766493</v>
       </c>
       <c r="C26" t="n">
-        <v>5.656047497217753</v>
+        <v>3.459933374335276</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6936902972708417</v>
+        <v>0.1801889967981982</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>82.93320801839289</v>
+        <v>62.6385129131152</v>
       </c>
       <c r="C27" t="n">
-        <v>3.956299149002199</v>
+        <v>6.766661366072175</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5294253361370027</v>
+        <v>0.3554766858047512</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>83.09142254308568</v>
+        <v>72.34714087577925</v>
       </c>
       <c r="C28" t="n">
-        <v>4.392892130813777</v>
+        <v>6.576065042343197</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2496000519136209</v>
+        <v>0.2873903724427079</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>83.61243374099867</v>
+        <v>72.81327866107455</v>
       </c>
       <c r="C29" t="n">
-        <v>4.691365786314127</v>
+        <v>8.947935788514114</v>
       </c>
       <c r="D29" t="n">
-        <v>0.404636822934791</v>
+        <v>0.2090275889836607</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>83.88558921450154</v>
+        <v>75.09401473901897</v>
       </c>
       <c r="C30" t="n">
-        <v>4.181323577992768</v>
+        <v>5.539062107282198</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8544687628300587</v>
+        <v>0.4191242911199765</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>86.35667696680768</v>
+        <v>78.03653577836182</v>
       </c>
       <c r="C31" t="n">
-        <v>6.631683838311195</v>
+        <v>7.091164606586593</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6461876779012673</v>
+        <v>0.2187821653859486</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>86.56539836255558</v>
+        <v>78.38626867725668</v>
       </c>
       <c r="C32" t="n">
-        <v>5.151615488523257</v>
+        <v>8.546091232639348</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2965734761814109</v>
+        <v>0.3841338768466209</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,83 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>91.77992947869839</v>
+        <v>79.55872701124409</v>
       </c>
       <c r="C33" t="n">
-        <v>4.0742264096481</v>
+        <v>7.760057732503734</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5336277691007115</v>
+        <v>0.3799961378308657</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>94.15225290176268</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8.027181716944559</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.3165531640635245</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>94.30932985152707</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12.33461981220447</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.203206989039628</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>94.75017836606995</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.404860813064992</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.1477723881304603</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>98.37866363835198</v>
+      </c>
+      <c r="C37" t="n">
+        <v>9.703326958923068</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4888594267858188</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>98.96595071800607</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5.307800015201298</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.1462619861178787</v>
       </c>
     </row>
   </sheetData>
